--- a/Báo cáo/4_HỆ THỐNG/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại HỆ THỐNG.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại HỆ THỐNG.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mai hồng nương</t>
+          <t>thạch thị siêu</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0760377571</t>
+          <t>0833525730</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,10 +507,10 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>6000000</v>
+        <v>50000000</v>
       </c>
       <c r="J2" t="n">
-        <v>2000000</v>
+        <v>26000000</v>
       </c>
     </row>
     <row r="3">
@@ -520,16 +520,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ngọc hân</t>
+          <t>Bạch Nhi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -545,10 +545,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>35000000</v>
+        <v>5000000</v>
       </c>
       <c r="J3" t="n">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="4">
@@ -558,16 +558,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lâm Minh Ngọc</t>
+          <t>mai hồng nương</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -575,7 +575,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0766931276</t>
+          <t>0760377571</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -585,10 +585,10 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="J4" t="n">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="5">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ trinh</t>
+          <t>ngọc hân</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -613,10 +613,8 @@
       <c r="E5" t="n">
         <v/>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0865927791</t>
-        </is>
+      <c r="F5" t="n">
+        <v/>
       </c>
       <c r="G5" t="n">
         <v/>
@@ -625,10 +623,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>22000000</v>
+        <v>35000000</v>
       </c>
       <c r="J5" t="n">
-        <v>7000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="6">
@@ -638,16 +636,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chị vui</t>
+          <t>Lâm Minh Ngọc</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -655,7 +653,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>094990449</t>
+          <t>0766931276</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -665,10 +663,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="J6" t="n">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="7">
@@ -678,16 +676,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>nguyễn thị mỹ trinh</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -695,7 +693,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0865927791</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -705,10 +703,10 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>7500000</v>
+        <v>22000000</v>
       </c>
       <c r="J7" t="n">
-        <v>10500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="8">
@@ -718,16 +716,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t>Chị vui</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -735,7 +733,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>094990449</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -745,10 +743,10 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>32000000</v>
+        <v>3000000</v>
       </c>
       <c r="J8" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="9">
@@ -758,16 +756,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -775,7 +773,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0786070121</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -785,10 +783,10 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>25000000</v>
+        <v>7500000</v>
       </c>
       <c r="J9" t="n">
-        <v>5000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="10">
@@ -798,11 +796,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -815,7 +813,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -825,10 +823,10 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>1500000</v>
+        <v>32000000</v>
       </c>
       <c r="J10" t="n">
-        <v>300000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="11">
@@ -838,16 +836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Huỳnh thị bé sáu</t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -855,7 +853,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0912122976</t>
+          <t>0786070121</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -865,10 +863,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>9000000</v>
+        <v>25000000</v>
       </c>
       <c r="J11" t="n">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="12">
@@ -878,23 +876,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="n">
-        <v/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0787996460</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -903,10 +903,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>15000000</v>
+        <v>1500000</v>
       </c>
       <c r="J12" t="n">
-        <v>20000000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="13">
@@ -916,16 +916,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -933,7 +933,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0912122976</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -943,10 +943,10 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>9500000</v>
+        <v>9000000</v>
       </c>
       <c r="J13" t="n">
-        <v>8500000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="14">
@@ -956,11 +956,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -981,10 +981,10 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>4000000</v>
+        <v>15000000</v>
       </c>
       <c r="J14" t="n">
-        <v>3000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="15">
@@ -994,11 +994,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0761880789</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1021,10 +1021,10 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>1000000</v>
+        <v>9500000</v>
       </c>
       <c r="J15" t="n">
-        <v>500000</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="16">
@@ -1034,25 +1034,23 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v/>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0971073757</t>
-        </is>
+      <c r="F16" t="n">
+        <v/>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -1061,7 +1059,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>14730000</v>
+        <v>4000000</v>
       </c>
       <c r="J16" t="n">
         <v>3000000</v>
@@ -1074,23 +1072,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v/>
       </c>
-      <c r="F17" t="n">
-        <v/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0761880789</t>
+        </is>
       </c>
       <c r="G17" t="n">
         <v/>
@@ -1099,10 +1099,10 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>2850000</v>
+        <v>1000000</v>
       </c>
       <c r="J17" t="n">
-        <v>5600000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="18">
@@ -1112,16 +1112,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>032781693</t>
+          <t>0971073757</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1139,10 +1139,10 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>10000000</v>
+        <v>14730000</v>
       </c>
       <c r="J18" t="n">
-        <v>15000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="19">
@@ -1152,11 +1152,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1177,10 +1177,10 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>22000000</v>
+        <v>2850000</v>
       </c>
       <c r="J19" t="n">
-        <v>21000000</v>
+        <v>5600000</v>
       </c>
     </row>
     <row r="20">
@@ -1190,11 +1190,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0852054955</t>
+          <t>032781693</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1217,10 +1217,10 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="J20" t="n">
-        <v>2000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="21">
@@ -1230,11 +1230,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1255,10 +1255,10 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>22000000</v>
       </c>
       <c r="J21" t="n">
-        <v>7000000</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="22">
@@ -1268,11 +1268,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1283,8 +1283,10 @@
       <c r="E22" t="n">
         <v/>
       </c>
-      <c r="F22" t="n">
-        <v/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -1293,10 +1295,10 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="J22" t="n">
-        <v>10500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="23">
@@ -1306,11 +1308,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1334,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>15000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="24">
@@ -1344,11 +1346,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1372,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="25">
@@ -1382,11 +1384,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>khanh ktv cũ</t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1410,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>7900000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="26">
@@ -1420,11 +1422,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1448,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>16500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="27">
@@ -1458,25 +1460,23 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>khanh ktv cũ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v/>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0975352074</t>
-        </is>
+      <c r="F27" t="n">
+        <v/>
       </c>
       <c r="G27" t="n">
         <v/>
@@ -1485,10 +1485,10 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1500000</v>
+        <v>7900000</v>
       </c>
     </row>
     <row r="28">
@@ -1498,25 +1498,23 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v/>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0974370797</t>
-        </is>
+      <c r="F28" t="n">
+        <v/>
       </c>
       <c r="G28" t="n">
         <v/>
@@ -1525,10 +1523,10 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>5000000</v>
+        <v>16500000</v>
       </c>
     </row>
     <row r="29">
@@ -1538,16 +1536,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Mai thị nương</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1555,7 +1553,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0975352074</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1565,10 +1563,10 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="J29" t="n">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="30">
@@ -1578,11 +1576,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1595,7 +1593,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0974370797</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1605,10 +1603,10 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="J30" t="n">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="31">
@@ -1618,16 +1616,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1635,7 +1633,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0768862580</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1645,10 +1643,10 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>5800000</v>
+        <v>10000000</v>
       </c>
       <c r="J31" t="n">
-        <v>1700000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="32">
@@ -1658,23 +1656,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v/>
       </c>
-      <c r="F32" t="n">
-        <v/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0868586369</t>
+        </is>
       </c>
       <c r="G32" t="n">
         <v/>
@@ -1683,10 +1683,10 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="J32" t="n">
-        <v>400000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="33">
@@ -1696,23 +1696,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v/>
       </c>
-      <c r="F33" t="n">
-        <v/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0768862580</t>
+        </is>
       </c>
       <c r="G33" t="n">
         <v/>
@@ -1721,10 +1723,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>2000000</v>
+        <v>5800000</v>
       </c>
       <c r="J33" t="n">
-        <v>500000</v>
+        <v>1700000</v>
       </c>
     </row>
     <row r="34">
@@ -1734,11 +1736,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1762,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>5000000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="35">
@@ -1772,11 +1774,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1787,10 +1789,8 @@
       <c r="E35" t="n">
         <v/>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F35" t="n">
+        <v/>
       </c>
       <c r="G35" t="n">
         <v/>
@@ -1799,10 +1799,10 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="J35" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="36">
@@ -1812,11 +1812,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1837,10 +1837,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>5000000</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3386000</v>
       </c>
     </row>
     <row r="37">
@@ -1850,16 +1850,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Em gấm</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0764666615</t>
+          <t>0369473448</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1877,10 +1877,10 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="J37" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="38">
@@ -1890,11 +1890,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1905,10 +1905,8 @@
       <c r="E38" t="n">
         <v/>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>8947126536</t>
-        </is>
+      <c r="F38" t="n">
+        <v/>
       </c>
       <c r="G38" t="n">
         <v/>
@@ -1917,10 +1915,10 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="J38" t="n">
-        <v>4000000</v>
+        <v>3386000</v>
       </c>
     </row>
     <row r="39">
@@ -1930,23 +1928,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="n">
-        <v/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0764666615</t>
+        </is>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1955,10 +1955,10 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="J39" t="n">
-        <v>25000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="40">
@@ -1968,16 +1968,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>8947126536</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -1995,10 +1995,10 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>26000000</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>9000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="41">
@@ -2008,25 +2008,23 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v/>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0797571132</t>
-        </is>
+      <c r="F41" t="n">
+        <v/>
       </c>
       <c r="G41" t="n">
         <v/>
@@ -2035,10 +2033,10 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>24300000</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>3000000</v>
+        <v>25000000</v>
       </c>
     </row>
     <row r="42">
@@ -2048,11 +2046,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2065,7 +2063,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2075,10 +2073,10 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>4000000</v>
+        <v>26000000</v>
       </c>
       <c r="J42" t="n">
-        <v>5000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="43">
@@ -2088,11 +2086,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2105,7 +2103,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2115,10 +2113,10 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>10000000</v>
+        <v>24300000</v>
       </c>
       <c r="J43" t="n">
-        <v>18000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="44">
@@ -2128,24 +2126,24 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>9417002720</v>
+        <v/>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0374112377</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2155,10 +2153,10 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>25000000</v>
+        <v>4000000</v>
       </c>
       <c r="J44" t="n">
-        <v>12000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="45">
@@ -2168,11 +2166,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2185,7 +2183,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2195,10 +2193,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="J45" t="n">
-        <v>5000000</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="46">
@@ -2208,24 +2206,24 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v/>
+        <v>9417002720</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0374112377</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2235,10 +2233,10 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>16000000</v>
+        <v>25000000</v>
       </c>
       <c r="J46" t="n">
-        <v>4000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="47">
@@ -2248,16 +2246,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Chị Tâm</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2265,7 +2263,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0396237229</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2275,10 +2273,10 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>4000000</v>
+        <v>8000000</v>
       </c>
       <c r="J47" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="48">
@@ -2288,16 +2286,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Hồ thị Kim thoa</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2305,7 +2303,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0964414150</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2315,10 +2313,10 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>8000000</v>
+        <v>16000000</v>
       </c>
       <c r="J48" t="n">
-        <v>17000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="49">
@@ -2328,11 +2326,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Chị diễm</t>
+          <t>Chị Tâm</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2345,7 +2343,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0918665056</t>
+          <t>0396237229</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2355,10 +2353,10 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>1000000</v>
+        <v>4000000</v>
       </c>
       <c r="J49" t="n">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="50">
@@ -2368,16 +2366,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Hồ thị Kim thoa</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2385,7 +2383,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0964414150</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2395,10 +2393,10 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>15000000</v>
+        <v>8000000</v>
       </c>
       <c r="J50" t="n">
-        <v>5000000</v>
+        <v>17000000</v>
       </c>
     </row>
     <row r="51">
@@ -2408,16 +2406,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2425,7 +2423,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0918665056</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2435,10 +2433,10 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>16000000</v>
+        <v>1000000</v>
       </c>
       <c r="J51" t="n">
-        <v>3000000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="52">
@@ -2448,23 +2446,25 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Em Như + Mẹ</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v/>
       </c>
-      <c r="F52" t="n">
-        <v/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0939773382</t>
+        </is>
       </c>
       <c r="G52" t="n">
         <v/>
@@ -2473,10 +2473,10 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>53000000</v>
+        <v>15000000</v>
       </c>
       <c r="J52" t="n">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="53">
@@ -2486,11 +2486,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0777004897</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2513,10 +2513,10 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>10000000</v>
+        <v>16000000</v>
       </c>
       <c r="J53" t="n">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="54">
@@ -2526,16 +2526,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Em Như + Mẹ</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2551,10 +2551,10 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>53000000</v>
       </c>
       <c r="J54" t="n">
-        <v>3000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="55">
@@ -2564,11 +2564,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2579,8 +2579,10 @@
       <c r="E55" t="n">
         <v/>
       </c>
-      <c r="F55" t="n">
-        <v/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G55" t="n">
         <v/>
@@ -2589,10 +2591,10 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>22500000</v>
+        <v>10000000</v>
       </c>
       <c r="J55" t="n">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="56">
@@ -2602,11 +2604,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2627,10 +2629,10 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="57">
@@ -2640,25 +2642,23 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E57" t="n">
         <v/>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0387888961</t>
-        </is>
+      <c r="F57" t="n">
+        <v/>
       </c>
       <c r="G57" t="n">
         <v/>
@@ -2667,10 +2667,10 @@
         <v/>
       </c>
       <c r="I57" t="n">
+        <v>22500000</v>
+      </c>
+      <c r="J57" t="n">
         <v>5000000</v>
-      </c>
-      <c r="J57" t="n">
-        <v>12000000</v>
       </c>
     </row>
     <row r="58">
@@ -2680,16 +2680,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2705,10 +2705,10 @@
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="J58" t="n">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="59">
@@ -2718,11 +2718,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2733,8 +2733,10 @@
       <c r="E59" t="n">
         <v/>
       </c>
-      <c r="F59" t="n">
-        <v/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G59" t="n">
         <v/>
@@ -2743,10 +2745,10 @@
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
       <c r="J59" t="n">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="60">
@@ -2756,11 +2758,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2771,10 +2773,8 @@
       <c r="E60" t="n">
         <v/>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F60" t="n">
+        <v/>
       </c>
       <c r="G60" t="n">
         <v/>
@@ -2783,10 +2783,10 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>85000000</v>
+        <v>15000000</v>
       </c>
       <c r="J60" t="n">
-        <v>30000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="61">
@@ -2796,16 +2796,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2821,10 +2821,10 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>2000000</v>
+        <v>15000000</v>
       </c>
       <c r="J61" t="n">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="62">
@@ -2834,16 +2834,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0939287844</t>
+          <t>0373886477</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2861,10 +2861,10 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>5500000</v>
+        <v>85000000</v>
       </c>
       <c r="J62" t="n">
-        <v>3000000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="63">
@@ -2874,11 +2874,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Chị Ngoan</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2899,10 +2899,10 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
       <c r="J63" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="64">
@@ -2912,11 +2912,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Em Xuyên</t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2927,8 +2927,10 @@
       <c r="E64" t="n">
         <v/>
       </c>
-      <c r="F64" t="n">
-        <v/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0939287844</t>
+        </is>
       </c>
       <c r="G64" t="n">
         <v/>
@@ -2937,10 +2939,10 @@
         <v/>
       </c>
       <c r="I64" t="n">
-        <v>5000000</v>
+        <v>5500000</v>
       </c>
       <c r="J64" t="n">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="65">
@@ -2950,11 +2952,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>em bang</t>
+          <t>Chị Ngoan</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2975,10 +2977,10 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>36900000</v>
+        <v>10000000</v>
       </c>
       <c r="J65" t="n">
-        <v>14000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="66">
@@ -2988,16 +2990,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>Em Xuyên</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -3013,10 +3015,10 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="J66" t="n">
-        <v>1000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="67">
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -3051,10 +3053,10 @@
         <v/>
       </c>
       <c r="I67" t="n">
-        <v>10000000</v>
+        <v>36900000</v>
       </c>
       <c r="J67" t="n">
-        <v>2000000</v>
+        <v>14000000</v>
       </c>
     </row>
     <row r="68">
@@ -3064,11 +3066,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3089,10 +3091,10 @@
         <v/>
       </c>
       <c r="I68" t="n">
-        <v>18900000</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>7200000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="69">
@@ -3102,11 +3104,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3130,7 +3132,7 @@
         <v>10000000</v>
       </c>
       <c r="J69" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="70">
@@ -3140,11 +3142,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3165,10 +3167,10 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>18900000</v>
       </c>
       <c r="J70" t="n">
-        <v>10000000</v>
+        <v>7200000</v>
       </c>
     </row>
     <row r="71">
@@ -3178,16 +3180,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -3203,10 +3205,10 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>15000000</v>
+        <v>10000000</v>
       </c>
       <c r="J71" t="n">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="72">
@@ -3216,25 +3218,23 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E72" t="n">
         <v/>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F72" t="n">
+        <v/>
       </c>
       <c r="G72" t="n">
         <v/>
@@ -3243,10 +3243,10 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>27000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="73">
@@ -3256,11 +3256,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3281,10 +3281,10 @@
         <v/>
       </c>
       <c r="I73" t="n">
-        <v>10000000</v>
+        <v>15000000</v>
       </c>
       <c r="J73" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="74">
@@ -3294,11 +3294,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3309,8 +3309,10 @@
       <c r="E74" t="n">
         <v/>
       </c>
-      <c r="F74" t="n">
-        <v/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G74" t="n">
         <v/>
@@ -3319,10 +3321,10 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="J74" t="n">
-        <v>23000000</v>
+        <v>27000000</v>
       </c>
     </row>
     <row r="75">
@@ -3332,11 +3334,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3345,12 +3347,10 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F75" t="n">
+        <v/>
       </c>
       <c r="G75" t="n">
         <v/>
@@ -3359,10 +3359,10 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>25000000</v>
+        <v>10000000</v>
       </c>
       <c r="J75" t="n">
-        <v>24000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="76">
@@ -3372,11 +3372,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3397,10 +3397,10 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>4700000</v>
+        <v>2000000</v>
       </c>
       <c r="J76" t="n">
-        <v>20000000</v>
+        <v>23000000</v>
       </c>
     </row>
     <row r="77">
@@ -3410,11 +3410,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3423,10 +3423,12 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v/>
-      </c>
-      <c r="F77" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G77" t="n">
         <v/>
@@ -3435,10 +3437,10 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="J77" t="n">
-        <v>5000000</v>
+        <v>24000000</v>
       </c>
     </row>
     <row r="78">
@@ -3448,11 +3450,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3473,10 +3475,10 @@
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>4700000</v>
       </c>
       <c r="J78" t="n">
-        <v>21000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="79">
@@ -3486,11 +3488,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3501,10 +3503,8 @@
       <c r="E79" t="n">
         <v/>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F79" t="n">
+        <v/>
       </c>
       <c r="G79" t="n">
         <v/>
@@ -3513,10 +3513,10 @@
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>28000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="80">
@@ -3526,11 +3526,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3551,10 +3551,10 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>300000</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="81">
@@ -3564,11 +3564,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3579,8 +3579,10 @@
       <c r="E81" t="n">
         <v/>
       </c>
-      <c r="F81" t="n">
-        <v/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G81" t="n">
         <v/>
@@ -3589,10 +3591,10 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>4300000</v>
+        <v>10000000</v>
       </c>
       <c r="J81" t="n">
-        <v>29500000</v>
+        <v>28000000</v>
       </c>
     </row>
     <row r="82">
@@ -3602,11 +3604,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3627,10 +3629,10 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>4000000</v>
+        <v>1200000</v>
       </c>
       <c r="J82" t="n">
-        <v>6000000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="83">
@@ -3640,11 +3642,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3655,10 +3657,8 @@
       <c r="E83" t="n">
         <v/>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F83" t="n">
+        <v/>
       </c>
       <c r="G83" t="n">
         <v/>
@@ -3667,10 +3667,10 @@
         <v/>
       </c>
       <c r="I83" t="n">
-        <v>13000000</v>
+        <v>4300000</v>
       </c>
       <c r="J83" t="n">
-        <v>12000000</v>
+        <v>29500000</v>
       </c>
     </row>
     <row r="84">
@@ -3680,11 +3680,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3705,10 +3705,10 @@
         <v/>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="J84" t="n">
-        <v>2000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="85">
@@ -3718,11 +3718,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3733,8 +3733,10 @@
       <c r="E85" t="n">
         <v/>
       </c>
-      <c r="F85" t="n">
-        <v/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G85" t="n">
         <v/>
@@ -3743,10 +3745,10 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>13000000</v>
       </c>
       <c r="J85" t="n">
-        <v>1000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="86">
@@ -3756,11 +3758,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3771,10 +3773,8 @@
       <c r="E86" t="n">
         <v/>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F86" t="n">
+        <v/>
       </c>
       <c r="G86" t="n">
         <v/>
@@ -3783,10 +3783,10 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>12000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="87">
@@ -3796,11 +3796,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="88">
@@ -3834,11 +3834,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3849,8 +3849,10 @@
       <c r="E88" t="n">
         <v/>
       </c>
-      <c r="F88" t="n">
-        <v/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G88" t="n">
         <v/>
@@ -3859,10 +3861,10 @@
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="J88" t="n">
-        <v>7000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="89">
@@ -3872,16 +3874,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -3897,7 +3899,7 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
         <v>1500000</v>
@@ -3910,16 +3912,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -3935,10 +3937,10 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="91">
@@ -3948,11 +3950,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3973,10 +3975,10 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="J91" t="n">
-        <v>25000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="92">
@@ -3986,11 +3988,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4011,10 +4013,10 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="J92" t="n">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="93">
@@ -4024,11 +4026,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>em Nhi</t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4049,10 +4051,10 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>12000000</v>
+        <v>10000000</v>
       </c>
       <c r="J93" t="n">
-        <v>13000000</v>
+        <v>25000000</v>
       </c>
     </row>
     <row r="94">
@@ -4062,11 +4064,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Chị Loan</t>
+          <t>Chị Xuyến</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4087,10 +4089,10 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="95">
@@ -4100,11 +4102,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Cô Trang</t>
+          <t>em Nhi</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4125,10 +4127,10 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>1000000</v>
+        <v>12000000</v>
       </c>
       <c r="J95" t="n">
-        <v>3000000</v>
+        <v>13000000</v>
       </c>
     </row>
     <row r="96">
@@ -4138,11 +4140,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Trúc Thanh</t>
+          <t>Chị Loan</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4163,10 +4165,10 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J96" t="n">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="97">
@@ -4176,25 +4178,23 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t>Cô Trang</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E97" t="n">
         <v/>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F97" t="n">
+        <v/>
       </c>
       <c r="G97" t="n">
         <v/>
@@ -4203,10 +4203,10 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>7000000</v>
+        <v>1000000</v>
       </c>
       <c r="J97" t="n">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="98">
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>Trúc Thanh</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -4244,7 +4244,7 @@
         <v>5000000</v>
       </c>
       <c r="J98" t="n">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="99">
@@ -4254,11 +4254,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4269,8 +4269,10 @@
       <c r="E99" t="n">
         <v/>
       </c>
-      <c r="F99" t="n">
-        <v/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G99" t="n">
         <v/>
@@ -4279,10 +4281,10 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>15000000</v>
+        <v>7000000</v>
       </c>
       <c r="J99" t="n">
-        <v>2000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="100">
@@ -4292,11 +4294,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4317,10 +4319,10 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>13000000</v>
+        <v>5000000</v>
       </c>
       <c r="J100" t="n">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="101">
@@ -4330,11 +4332,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4355,10 +4357,10 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>2500000</v>
+        <v>15000000</v>
       </c>
       <c r="J101" t="n">
-        <v>1498000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="102">
@@ -4368,11 +4370,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Quan thị Hoa</t>
+          <t>Lan Phương</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4393,10 +4395,10 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>13000000</v>
       </c>
       <c r="J102" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="103">
@@ -4406,16 +4408,16 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>C.Hoành Ná</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -4431,10 +4433,10 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>17500000</v>
+        <v>2500000</v>
       </c>
       <c r="J103" t="n">
-        <v>9500000</v>
+        <v>1498000</v>
       </c>
     </row>
     <row r="104">
@@ -4444,16 +4446,16 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Quan thị Hoa</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -4469,10 +4471,10 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="105">
@@ -4482,11 +4484,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4507,10 +4509,10 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>17500000</v>
       </c>
       <c r="J105" t="n">
-        <v>6000000</v>
+        <v>9500000</v>
       </c>
     </row>
     <row r="106">
@@ -4520,11 +4522,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4545,10 +4547,10 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="J106" t="n">
-        <v>7000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="107">
@@ -4558,11 +4560,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4586,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="108">
@@ -4596,36 +4598,112 @@
         </is>
       </c>
       <c r="B108" t="n">
+        <v>50</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Ngọc Hân</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v/>
+      </c>
+      <c r="F108" t="n">
+        <v/>
+      </c>
+      <c r="G108" t="n">
+        <v/>
+      </c>
+      <c r="H108" t="n">
+        <v/>
+      </c>
+      <c r="I108" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J108" t="n">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>42</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v/>
+      </c>
+      <c r="F109" t="n">
+        <v/>
+      </c>
+      <c r="G109" t="n">
+        <v/>
+      </c>
+      <c r="H109" t="n">
+        <v/>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
         <v>41</v>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E108" t="n">
-        <v/>
-      </c>
-      <c r="F108" t="inlineStr">
+      <c r="E110" t="n">
+        <v/>
+      </c>
+      <c r="F110" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G108" t="n">
-        <v/>
-      </c>
-      <c r="H108" t="n">
-        <v/>
-      </c>
-      <c r="I108" t="n">
+      <c r="G110" t="n">
+        <v/>
+      </c>
+      <c r="H110" t="n">
+        <v/>
+      </c>
+      <c r="I110" t="n">
         <v>16000000</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J110" t="n">
         <v>2000000</v>
       </c>
     </row>

--- a/Báo cáo/4_HỆ THỐNG/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại HỆ THỐNG.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại HỆ THỐNG.xlsx
@@ -547,10 +547,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>20000000</v>
+        <v>40000000</v>
       </c>
       <c r="J3" t="n">
-        <v>40500000</v>
+        <v>20500000</v>
       </c>
     </row>
     <row r="4">
@@ -823,10 +823,10 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>11000000</v>
+        <v>12000000</v>
       </c>
       <c r="J10" t="n">
-        <v>7000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="11">
@@ -1529,10 +1529,10 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>16000000</v>
+        <v>18000000</v>
       </c>
       <c r="J28" t="n">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="29">

--- a/Báo cáo/4_HỆ THỐNG/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại HỆ THỐNG.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại HỆ THỐNG.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,16 +480,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ngọc diễm</t>
+          <t>Nguyễn Thị Như Ý</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0989211191</t>
+          <t>0966680674</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,10 +507,10 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>3000000</v>
+        <v>27000000</v>
       </c>
       <c r="J2" t="n">
-        <v>3000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="3">
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Trương thị kiều</t>
+          <t>Ngọc diễm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0868375152</t>
+          <t>0989211191</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -547,10 +547,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>40000000</v>
+        <v>3000000</v>
       </c>
       <c r="J3" t="n">
-        <v>20500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="4">
@@ -560,16 +560,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>thạch thị siêu</t>
+          <t>Trương thị kiều</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -577,7 +577,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0833525730</t>
+          <t>0868375152</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -587,10 +587,10 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>51500000</v>
+        <v>40000000</v>
       </c>
       <c r="J4" t="n">
-        <v>26000000</v>
+        <v>26500000</v>
       </c>
     </row>
     <row r="5">
@@ -600,23 +600,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bạch Nhi</t>
+          <t>thạch thị siêu</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v/>
       </c>
-      <c r="F5" t="n">
-        <v/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0833525730</t>
+        </is>
       </c>
       <c r="G5" t="n">
         <v/>
@@ -625,10 +627,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>7000000</v>
+        <v>51500000</v>
       </c>
       <c r="J5" t="n">
-        <v>8000000</v>
+        <v>26000000</v>
       </c>
     </row>
     <row r="6">
@@ -638,25 +640,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>mai hồng nương</t>
+          <t>Bạch Nhi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v/>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0760377571</t>
-        </is>
+      <c r="F6" t="n">
+        <v/>
       </c>
       <c r="G6" t="n">
         <v/>
@@ -665,10 +665,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="J6" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="7">
@@ -678,16 +678,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>mai hồng nương</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -695,7 +695,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0760377571</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -705,10 +705,10 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="J7" t="n">
-        <v>300000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="8">
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Huỳnh thị bé sáu</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -735,7 +735,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0912122976</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -745,10 +745,10 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>9000000</v>
+        <v>1500000</v>
       </c>
       <c r="J8" t="n">
-        <v>2500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="9">
@@ -758,23 +758,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v/>
       </c>
-      <c r="F9" t="n">
-        <v/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0912122976</t>
+        </is>
       </c>
       <c r="G9" t="n">
         <v/>
@@ -783,10 +785,10 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>26000000</v>
+        <v>9000000</v>
       </c>
       <c r="J9" t="n">
-        <v>9000000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="10">
@@ -796,25 +798,23 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0868883621</t>
-        </is>
+      <c r="F10" t="n">
+        <v/>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -823,10 +823,10 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>12000000</v>
+        <v>26000000</v>
       </c>
       <c r="J10" t="n">
-        <v>6000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="11">
@@ -836,23 +836,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v/>
       </c>
-      <c r="F11" t="n">
-        <v/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0868883621</t>
+        </is>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -861,10 +863,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>4850000</v>
+        <v>12000000</v>
       </c>
       <c r="J11" t="n">
-        <v>3600000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="12">
@@ -874,11 +876,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -889,10 +891,8 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F12" t="n">
+        <v/>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -901,10 +901,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>12000000</v>
+        <v>4850000</v>
       </c>
       <c r="J12" t="n">
-        <v>13000000</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="13">
@@ -914,11 +914,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -929,8 +929,10 @@
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="n">
-        <v/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>032781693</t>
+        </is>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -939,10 +941,10 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>24000000</v>
+        <v>12000000</v>
       </c>
       <c r="J13" t="n">
-        <v>19000000</v>
+        <v>13000000</v>
       </c>
     </row>
     <row r="14">
@@ -952,11 +954,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -977,10 +979,10 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>24000000</v>
       </c>
       <c r="J14" t="n">
-        <v>7000000</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="15">
@@ -990,11 +992,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1018,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>10500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="16">
@@ -1028,11 +1030,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1056,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="17">
@@ -1066,11 +1068,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1094,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>7000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="18">
@@ -1104,11 +1106,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1132,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>16500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="19">
@@ -1142,25 +1144,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v/>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0975352074</t>
-        </is>
+      <c r="F19" t="n">
+        <v/>
       </c>
       <c r="G19" t="n">
         <v/>
@@ -1169,10 +1169,10 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1500000</v>
+        <v>16500000</v>
       </c>
     </row>
     <row r="20">
@@ -1182,11 +1182,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Mai thị nương</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0768862580</t>
+          <t>0975352074</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1209,10 +1209,10 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>7000000</v>
+        <v>1500000</v>
       </c>
       <c r="J20" t="n">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="21">
@@ -1222,16 +1222,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0369473448</t>
+          <t>0768862580</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1249,10 +1249,10 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>8500000</v>
+        <v>7000000</v>
       </c>
       <c r="J21" t="n">
-        <v>1500000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="22">
@@ -1262,16 +1262,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Em gấm</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0764666615</t>
+          <t>0369473448</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1289,10 +1289,10 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>18000000</v>
+        <v>8500000</v>
       </c>
       <c r="J22" t="n">
-        <v>7000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="23">
@@ -1302,16 +1302,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>8947126536</t>
+          <t>0764666615</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1329,10 +1329,10 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
       <c r="J23" t="n">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="24">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>8947126536</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1369,10 +1369,10 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="25">
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Hồ thị Kim thoa</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0964414150</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1409,10 +1409,10 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>8000000</v>
+        <v>7000000</v>
       </c>
       <c r="J25" t="n">
-        <v>17000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="26">
@@ -1422,11 +1422,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Chị diễm</t>
+          <t>Hồ thị Kim thoa</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0918665056</t>
+          <t>0964414150</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1449,10 +1449,10 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>1800000</v>
+        <v>8000000</v>
       </c>
       <c r="J26" t="n">
-        <v>500000</v>
+        <v>17000000</v>
       </c>
     </row>
     <row r="27">
@@ -1462,16 +1462,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0918665056</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1489,10 +1489,10 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>15000000</v>
+        <v>1800000</v>
       </c>
       <c r="J27" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="28">
@@ -1502,11 +1502,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1529,10 +1529,10 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>18000000</v>
+        <v>15000000</v>
       </c>
       <c r="J28" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="29">
@@ -1542,11 +1542,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1557,8 +1557,10 @@
       <c r="E29" t="n">
         <v/>
       </c>
-      <c r="F29" t="n">
-        <v/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G29" t="n">
         <v/>
@@ -1567,10 +1569,10 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
       <c r="J29" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="30">
@@ -1580,25 +1582,23 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v/>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0387888961</t>
-        </is>
+      <c r="F30" t="n">
+        <v/>
       </c>
       <c r="G30" t="n">
         <v/>
@@ -1607,10 +1607,10 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>9000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="31">
@@ -1620,23 +1620,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v/>
       </c>
-      <c r="F31" t="n">
-        <v/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -1645,10 +1647,10 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="J31" t="n">
-        <v>500000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="32">
@@ -1658,11 +1660,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1673,10 +1675,8 @@
       <c r="E32" t="n">
         <v/>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0939287844</t>
-        </is>
+      <c r="F32" t="n">
+        <v/>
       </c>
       <c r="G32" t="n">
         <v/>
@@ -1685,10 +1685,10 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>5500000</v>
+        <v>2000000</v>
       </c>
       <c r="J32" t="n">
-        <v>3000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="33">
@@ -1698,11 +1698,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>em bang</t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1713,8 +1713,10 @@
       <c r="E33" t="n">
         <v/>
       </c>
-      <c r="F33" t="n">
-        <v/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0939287844</t>
+        </is>
       </c>
       <c r="G33" t="n">
         <v/>
@@ -1723,10 +1725,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>36900000</v>
+        <v>5500000</v>
       </c>
       <c r="J33" t="n">
-        <v>14000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="34">
@@ -1736,16 +1738,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1761,10 +1763,10 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>14600000</v>
+        <v>36900000</v>
       </c>
       <c r="J34" t="n">
-        <v>10400000</v>
+        <v>14000000</v>
       </c>
     </row>
     <row r="35">
@@ -1774,11 +1776,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1787,12 +1789,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F35" t="n">
+        <v/>
       </c>
       <c r="G35" t="n">
         <v/>
@@ -1801,10 +1801,10 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>44000000</v>
+        <v>14600000</v>
       </c>
       <c r="J35" t="n">
-        <v>5000000</v>
+        <v>10400000</v>
       </c>
     </row>
     <row r="36">
@@ -1814,11 +1814,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1827,10 +1827,12 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v/>
-      </c>
-      <c r="F36" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G36" t="n">
         <v/>
@@ -1839,10 +1841,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>6000000</v>
+        <v>44000000</v>
       </c>
       <c r="J36" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="37">
@@ -1852,11 +1854,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1867,10 +1869,8 @@
       <c r="E37" t="n">
         <v/>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F37" t="n">
+        <v/>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -1879,10 +1879,10 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>19000000</v>
+        <v>6000000</v>
       </c>
       <c r="J37" t="n">
-        <v>19000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="38">
@@ -1892,11 +1892,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1907,8 +1907,10 @@
       <c r="E38" t="n">
         <v/>
       </c>
-      <c r="F38" t="n">
-        <v/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G38" t="n">
         <v/>
@@ -1917,10 +1919,10 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>1200000</v>
+        <v>19000000</v>
       </c>
       <c r="J38" t="n">
-        <v>300000</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="39">
@@ -1930,11 +1932,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1955,10 +1957,10 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>10300000</v>
+        <v>1200000</v>
       </c>
       <c r="J39" t="n">
-        <v>23500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="40">
@@ -1968,11 +1970,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1983,10 +1985,8 @@
       <c r="E40" t="n">
         <v/>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F40" t="n">
+        <v/>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -1995,10 +1995,10 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>16500000</v>
+        <v>10300000</v>
       </c>
       <c r="J40" t="n">
-        <v>8500000</v>
+        <v>23500000</v>
       </c>
     </row>
     <row r="41">
@@ -2008,11 +2008,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0868277767</t>
+          <t>0332812716</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2035,10 +2035,10 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>4500000</v>
+        <v>16500000</v>
       </c>
       <c r="J41" t="n">
-        <v>10500000</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="42">
@@ -2048,23 +2048,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v/>
       </c>
-      <c r="F42" t="n">
-        <v/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G42" t="n">
         <v/>
@@ -2073,10 +2075,10 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>1500000</v>
+        <v>4500000</v>
       </c>
       <c r="J42" t="n">
-        <v>1500000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="43">
@@ -2086,11 +2088,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2111,10 +2113,10 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="J43" t="n">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="44">
@@ -2124,11 +2126,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2149,10 +2151,10 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>13000000</v>
+        <v>10000000</v>
       </c>
       <c r="J44" t="n">
-        <v>22000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="45">
@@ -2162,11 +2164,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2187,10 +2189,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>1000000</v>
+        <v>13000000</v>
       </c>
       <c r="J45" t="n">
-        <v>3000000</v>
+        <v>22000000</v>
       </c>
     </row>
     <row r="46">
@@ -2200,11 +2202,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>em Nhi</t>
+          <t>Chị Xuyến</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2225,10 +2227,10 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>19000000</v>
+        <v>1000000</v>
       </c>
       <c r="J46" t="n">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="47">
@@ -2238,11 +2240,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Chị Loan</t>
+          <t>em Nhi</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2263,10 +2265,10 @@
         <v/>
       </c>
       <c r="I47" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="J47" t="n">
         <v>6000000</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1000000</v>
       </c>
     </row>
     <row r="48">
@@ -2276,11 +2278,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Trúc Thanh</t>
+          <t>Chị Loan</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2304,7 +2306,7 @@
         <v>6000000</v>
       </c>
       <c r="J48" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="49">
@@ -2314,34 +2316,72 @@
         </is>
       </c>
       <c r="B49" t="n">
+        <v>68</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Trúc Thanh</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v/>
+      </c>
+      <c r="F49" t="n">
+        <v/>
+      </c>
+      <c r="G49" t="n">
+        <v/>
+      </c>
+      <c r="H49" t="n">
+        <v/>
+      </c>
+      <c r="I49" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
         <v>61</v>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>C.Hoành Ná</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="E49" t="n">
-        <v/>
-      </c>
-      <c r="F49" t="n">
-        <v/>
-      </c>
-      <c r="G49" t="n">
-        <v/>
-      </c>
-      <c r="H49" t="n">
-        <v/>
-      </c>
-      <c r="I49" t="n">
+      <c r="E50" t="n">
+        <v/>
+      </c>
+      <c r="F50" t="n">
+        <v/>
+      </c>
+      <c r="G50" t="n">
+        <v/>
+      </c>
+      <c r="H50" t="n">
+        <v/>
+      </c>
+      <c r="I50" t="n">
         <v>2500000</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J50" t="n">
         <v>1498000</v>
       </c>
     </row>

--- a/Báo cáo/4_HỆ THỐNG/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại HỆ THỐNG.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại HỆ THỐNG.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,16 +480,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Như Ý</t>
+          <t>Cầm dương</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0966680674</t>
+          <t>0364580162</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,10 +507,10 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>27000000</v>
+        <v>2000000</v>
       </c>
       <c r="J2" t="n">
-        <v>8000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="3">
@@ -520,16 +520,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ngọc diễm</t>
+          <t>Nguyễn Thị Như Ý</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -537,7 +537,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0989211191</t>
+          <t>0966680674</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -547,10 +547,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>3000000</v>
+        <v>27000000</v>
       </c>
       <c r="J3" t="n">
-        <v>3000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="4">
@@ -560,11 +560,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Trương thị kiều</t>
+          <t>Ngọc diễm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0868375152</t>
+          <t>0989211191</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -587,10 +587,10 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>40000000</v>
+        <v>3000000</v>
       </c>
       <c r="J4" t="n">
-        <v>26500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="5">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>thạch thị siêu</t>
+          <t>Trương thị kiều</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0833525730</t>
+          <t>0868375152</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -627,10 +627,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>51500000</v>
+        <v>40000000</v>
       </c>
       <c r="J5" t="n">
-        <v>26000000</v>
+        <v>26500000</v>
       </c>
     </row>
     <row r="6">
@@ -640,23 +640,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bạch Nhi</t>
+          <t>thạch thị siêu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v/>
       </c>
-      <c r="F6" t="n">
-        <v/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0833525730</t>
+        </is>
       </c>
       <c r="G6" t="n">
         <v/>
@@ -665,10 +667,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>7000000</v>
+        <v>51500000</v>
       </c>
       <c r="J6" t="n">
-        <v>8000000</v>
+        <v>26000000</v>
       </c>
     </row>
     <row r="7">
@@ -678,25 +680,23 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>mai hồng nương</t>
+          <t>Bạch Nhi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v/>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0760377571</t>
-        </is>
+      <c r="F7" t="n">
+        <v/>
       </c>
       <c r="G7" t="n">
         <v/>
@@ -705,10 +705,10 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="J7" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="8">
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>mai hồng nương</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -735,7 +735,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0760377571</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -745,10 +745,10 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="J8" t="n">
-        <v>300000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="9">
@@ -758,16 +758,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Huỳnh thị bé sáu</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -775,7 +775,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0912122976</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -785,10 +785,10 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>9000000</v>
+        <v>1500000</v>
       </c>
       <c r="J9" t="n">
-        <v>2500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="10">
@@ -798,23 +798,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="n">
-        <v/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0912122976</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -823,10 +825,10 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>26000000</v>
+        <v>9000000</v>
       </c>
       <c r="J10" t="n">
-        <v>9000000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="11">
@@ -836,25 +838,23 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v/>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0868883621</t>
-        </is>
+      <c r="F11" t="n">
+        <v/>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -863,10 +863,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>12000000</v>
+        <v>26000000</v>
       </c>
       <c r="J11" t="n">
-        <v>6000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="12">
@@ -876,23 +876,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="n">
-        <v/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0868883621</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -901,10 +903,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>4850000</v>
+        <v>12000000</v>
       </c>
       <c r="J12" t="n">
-        <v>3600000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="13">
@@ -914,11 +916,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -929,10 +931,8 @@
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F13" t="n">
+        <v/>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -941,10 +941,10 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>12000000</v>
+        <v>4850000</v>
       </c>
       <c r="J13" t="n">
-        <v>13000000</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="14">
@@ -954,11 +954,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -969,8 +969,10 @@
       <c r="E14" t="n">
         <v/>
       </c>
-      <c r="F14" t="n">
-        <v/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>032781693</t>
+        </is>
       </c>
       <c r="G14" t="n">
         <v/>
@@ -979,10 +981,10 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>24000000</v>
+        <v>12000000</v>
       </c>
       <c r="J14" t="n">
-        <v>19000000</v>
+        <v>13000000</v>
       </c>
     </row>
     <row r="15">
@@ -992,11 +994,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1017,10 +1019,10 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>24000000</v>
       </c>
       <c r="J15" t="n">
-        <v>7000000</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="16">
@@ -1030,11 +1032,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1058,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="17">
@@ -1068,11 +1070,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>15000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="18">
@@ -1106,11 +1108,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1134,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>7000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="19">
@@ -1144,11 +1146,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1172,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>16500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="20">
@@ -1182,25 +1184,23 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v/>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0975352074</t>
-        </is>
+      <c r="F20" t="n">
+        <v/>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -1209,10 +1209,10 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1500000</v>
+        <v>16500000</v>
       </c>
     </row>
     <row r="21">
@@ -1222,11 +1222,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Mai thị nương</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0768862580</t>
+          <t>0975352074</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1249,10 +1249,10 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>7000000</v>
+        <v>1500000</v>
       </c>
       <c r="J21" t="n">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="22">
@@ -1262,16 +1262,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0369473448</t>
+          <t>0768862580</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1289,10 +1289,10 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>8500000</v>
+        <v>7000000</v>
       </c>
       <c r="J22" t="n">
-        <v>1500000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="23">
@@ -1302,16 +1302,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Em gấm</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0764666615</t>
+          <t>0369473448</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1329,10 +1329,10 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>18000000</v>
+        <v>8500000</v>
       </c>
       <c r="J23" t="n">
-        <v>7000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="24">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>8947126536</t>
+          <t>0764666615</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1369,10 +1369,10 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
       <c r="J24" t="n">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="25">
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>8947126536</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1409,10 +1409,10 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="26">
@@ -1422,16 +1422,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Hồ thị Kim thoa</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0964414150</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1449,10 +1449,10 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>8000000</v>
+        <v>7000000</v>
       </c>
       <c r="J26" t="n">
-        <v>17000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="27">
@@ -1462,11 +1462,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Chị diễm</t>
+          <t>Hồ thị Kim thoa</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0918665056</t>
+          <t>0964414150</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1489,10 +1489,10 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>1800000</v>
+        <v>8000000</v>
       </c>
       <c r="J27" t="n">
-        <v>500000</v>
+        <v>17000000</v>
       </c>
     </row>
     <row r="28">
@@ -1502,16 +1502,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0918665056</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1529,10 +1529,10 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>15000000</v>
+        <v>1800000</v>
       </c>
       <c r="J28" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="29">
@@ -1542,11 +1542,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1569,10 +1569,10 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>18000000</v>
+        <v>15000000</v>
       </c>
       <c r="J29" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="30">
@@ -1582,11 +1582,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1597,8 +1597,10 @@
       <c r="E30" t="n">
         <v/>
       </c>
-      <c r="F30" t="n">
-        <v/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G30" t="n">
         <v/>
@@ -1607,10 +1609,10 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
       <c r="J30" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="31">
@@ -1620,25 +1622,23 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v/>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0387888961</t>
-        </is>
+      <c r="F31" t="n">
+        <v/>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -1647,10 +1647,10 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>9000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="32">
@@ -1660,23 +1660,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v/>
       </c>
-      <c r="F32" t="n">
-        <v/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G32" t="n">
         <v/>
@@ -1685,10 +1687,10 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="J32" t="n">
-        <v>500000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="33">
@@ -1698,11 +1700,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1713,10 +1715,8 @@
       <c r="E33" t="n">
         <v/>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0939287844</t>
-        </is>
+      <c r="F33" t="n">
+        <v/>
       </c>
       <c r="G33" t="n">
         <v/>
@@ -1725,10 +1725,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>5500000</v>
+        <v>2000000</v>
       </c>
       <c r="J33" t="n">
-        <v>3000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="34">
@@ -1738,11 +1738,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>em bang</t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1753,8 +1753,10 @@
       <c r="E34" t="n">
         <v/>
       </c>
-      <c r="F34" t="n">
-        <v/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0939287844</t>
+        </is>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -1763,10 +1765,10 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>36900000</v>
+        <v>5500000</v>
       </c>
       <c r="J34" t="n">
-        <v>14000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="35">
@@ -1776,16 +1778,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1801,10 +1803,10 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>14600000</v>
+        <v>36900000</v>
       </c>
       <c r="J35" t="n">
-        <v>10400000</v>
+        <v>14000000</v>
       </c>
     </row>
     <row r="36">
@@ -1814,11 +1816,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1827,12 +1829,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F36" t="n">
+        <v/>
       </c>
       <c r="G36" t="n">
         <v/>
@@ -1841,10 +1841,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>44000000</v>
+        <v>14600000</v>
       </c>
       <c r="J36" t="n">
-        <v>5000000</v>
+        <v>10400000</v>
       </c>
     </row>
     <row r="37">
@@ -1854,11 +1854,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1867,10 +1867,12 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v/>
-      </c>
-      <c r="F37" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -1879,10 +1881,10 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>6000000</v>
+        <v>44000000</v>
       </c>
       <c r="J37" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="38">
@@ -1892,11 +1894,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1907,10 +1909,8 @@
       <c r="E38" t="n">
         <v/>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F38" t="n">
+        <v/>
       </c>
       <c r="G38" t="n">
         <v/>
@@ -1919,10 +1919,10 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>19000000</v>
+        <v>6000000</v>
       </c>
       <c r="J38" t="n">
-        <v>19000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="39">
@@ -1932,11 +1932,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1947,8 +1947,10 @@
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="n">
-        <v/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1957,10 +1959,10 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>1200000</v>
+        <v>19000000</v>
       </c>
       <c r="J39" t="n">
-        <v>300000</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="40">
@@ -1970,11 +1972,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1995,10 +1997,10 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>10300000</v>
+        <v>1200000</v>
       </c>
       <c r="J40" t="n">
-        <v>23500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="41">
@@ -2008,11 +2010,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2023,10 +2025,8 @@
       <c r="E41" t="n">
         <v/>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F41" t="n">
+        <v/>
       </c>
       <c r="G41" t="n">
         <v/>
@@ -2035,10 +2035,10 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>16500000</v>
+        <v>10300000</v>
       </c>
       <c r="J41" t="n">
-        <v>8500000</v>
+        <v>23500000</v>
       </c>
     </row>
     <row r="42">
@@ -2048,11 +2048,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0868277767</t>
+          <t>0332812716</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2075,10 +2075,10 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>4500000</v>
+        <v>16500000</v>
       </c>
       <c r="J42" t="n">
-        <v>10500000</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="43">
@@ -2088,23 +2088,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E43" t="n">
         <v/>
       </c>
-      <c r="F43" t="n">
-        <v/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G43" t="n">
         <v/>
@@ -2113,10 +2115,10 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>1500000</v>
+        <v>4500000</v>
       </c>
       <c r="J43" t="n">
-        <v>1500000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="44">
@@ -2126,11 +2128,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2151,10 +2153,10 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="J44" t="n">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="45">
@@ -2164,11 +2166,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2189,10 +2191,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>13000000</v>
+        <v>10000000</v>
       </c>
       <c r="J45" t="n">
-        <v>22000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="46">
@@ -2202,11 +2204,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2227,10 +2229,10 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>1000000</v>
+        <v>13000000</v>
       </c>
       <c r="J46" t="n">
-        <v>3000000</v>
+        <v>22000000</v>
       </c>
     </row>
     <row r="47">
@@ -2240,11 +2242,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>em Nhi</t>
+          <t>Chị Xuyến</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2265,10 +2267,10 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>19000000</v>
+        <v>1000000</v>
       </c>
       <c r="J47" t="n">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="48">
@@ -2278,11 +2280,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Chị Loan</t>
+          <t>em Nhi</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2303,10 +2305,10 @@
         <v/>
       </c>
       <c r="I48" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="J48" t="n">
         <v>6000000</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1000000</v>
       </c>
     </row>
     <row r="49">
@@ -2316,11 +2318,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Trúc Thanh</t>
+          <t>Chị Loan</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2344,7 +2346,7 @@
         <v>6000000</v>
       </c>
       <c r="J49" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="50">
@@ -2354,34 +2356,72 @@
         </is>
       </c>
       <c r="B50" t="n">
+        <v>68</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Trúc Thanh</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v/>
+      </c>
+      <c r="F50" t="n">
+        <v/>
+      </c>
+      <c r="G50" t="n">
+        <v/>
+      </c>
+      <c r="H50" t="n">
+        <v/>
+      </c>
+      <c r="I50" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
         <v>61</v>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>C.Hoành Ná</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="E50" t="n">
-        <v/>
-      </c>
-      <c r="F50" t="n">
-        <v/>
-      </c>
-      <c r="G50" t="n">
-        <v/>
-      </c>
-      <c r="H50" t="n">
-        <v/>
-      </c>
-      <c r="I50" t="n">
+      <c r="E51" t="n">
+        <v/>
+      </c>
+      <c r="F51" t="n">
+        <v/>
+      </c>
+      <c r="G51" t="n">
+        <v/>
+      </c>
+      <c r="H51" t="n">
+        <v/>
+      </c>
+      <c r="I51" t="n">
         <v>2500000</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J51" t="n">
         <v>1498000</v>
       </c>
     </row>

--- a/Báo cáo/4_HỆ THỐNG/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại HỆ THỐNG.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại HỆ THỐNG.xlsx
@@ -1449,10 +1449,10 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>7000000</v>
+        <v>8000000</v>
       </c>
       <c r="J26" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="27">
@@ -1841,10 +1841,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>14600000</v>
+        <v>18800000</v>
       </c>
       <c r="J36" t="n">
-        <v>10400000</v>
+        <v>6200000</v>
       </c>
     </row>
     <row r="37">
@@ -1959,10 +1959,10 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>19000000</v>
+        <v>22000000</v>
       </c>
       <c r="J39" t="n">
-        <v>19000000</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="40">

--- a/Báo cáo/4_HỆ THỐNG/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại HỆ THỐNG.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại HỆ THỐNG.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,16 +480,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cầm dương</t>
+          <t>Nguyễn Ngọc Hân</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0364580162</t>
+          <t>0587025000</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,7 +507,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>2000000</v>
+        <v>8500000</v>
       </c>
       <c r="J2" t="n">
         <v>12000000</v>
@@ -520,16 +520,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Như Ý</t>
+          <t>Cầm dương</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -537,7 +537,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0966680674</t>
+          <t>0364580162</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -547,10 +547,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>27000000</v>
+        <v>2000000</v>
       </c>
       <c r="J3" t="n">
-        <v>8000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="4">
@@ -560,16 +560,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ngọc diễm</t>
+          <t>Nguyễn Thị Như Ý</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -577,7 +577,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0989211191</t>
+          <t>0966680674</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -587,10 +587,10 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>3000000</v>
+        <v>27000000</v>
       </c>
       <c r="J4" t="n">
-        <v>3000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="5">
@@ -600,11 +600,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Trương thị kiều</t>
+          <t>Ngọc diễm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0868375152</t>
+          <t>0989211191</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -627,10 +627,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>40000000</v>
+        <v>3000000</v>
       </c>
       <c r="J5" t="n">
-        <v>26500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="6">
@@ -640,16 +640,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>thạch thị siêu</t>
+          <t>Trương thị kiều</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -657,7 +657,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0833525730</t>
+          <t>0868375152</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -667,10 +667,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>51500000</v>
+        <v>40000000</v>
       </c>
       <c r="J6" t="n">
-        <v>26000000</v>
+        <v>26500000</v>
       </c>
     </row>
     <row r="7">
@@ -680,23 +680,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bạch Nhi</t>
+          <t>thạch thị siêu</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v/>
       </c>
-      <c r="F7" t="n">
-        <v/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0833525730</t>
+        </is>
       </c>
       <c r="G7" t="n">
         <v/>
@@ -705,10 +707,10 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>7000000</v>
+        <v>51500000</v>
       </c>
       <c r="J7" t="n">
-        <v>8000000</v>
+        <v>26000000</v>
       </c>
     </row>
     <row r="8">
@@ -718,25 +720,23 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>mai hồng nương</t>
+          <t>Bạch Nhi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v/>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0760377571</t>
-        </is>
+      <c r="F8" t="n">
+        <v/>
       </c>
       <c r="G8" t="n">
         <v/>
@@ -745,10 +745,10 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="J8" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="9">
@@ -758,16 +758,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>mai hồng nương</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -775,7 +775,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0760377571</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -785,10 +785,10 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="J9" t="n">
-        <v>300000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="10">
@@ -798,16 +798,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Huỳnh thị bé sáu</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -815,7 +815,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0912122976</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -825,10 +825,10 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>9000000</v>
+        <v>1500000</v>
       </c>
       <c r="J10" t="n">
-        <v>2500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="11">
@@ -838,23 +838,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v/>
       </c>
-      <c r="F11" t="n">
-        <v/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0912122976</t>
+        </is>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -863,10 +865,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>26000000</v>
+        <v>9000000</v>
       </c>
       <c r="J11" t="n">
-        <v>9000000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="12">
@@ -876,25 +878,23 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0868883621</t>
-        </is>
+      <c r="F12" t="n">
+        <v/>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -903,10 +903,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>12000000</v>
+        <v>26000000</v>
       </c>
       <c r="J12" t="n">
-        <v>6000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="13">
@@ -916,23 +916,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="n">
-        <v/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0868883621</t>
+        </is>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -941,10 +943,10 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>4850000</v>
+        <v>12000000</v>
       </c>
       <c r="J13" t="n">
-        <v>3600000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="14">
@@ -954,11 +956,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -969,10 +971,8 @@
       <c r="E14" t="n">
         <v/>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F14" t="n">
+        <v/>
       </c>
       <c r="G14" t="n">
         <v/>
@@ -981,10 +981,10 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>12000000</v>
+        <v>4850000</v>
       </c>
       <c r="J14" t="n">
-        <v>13000000</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="15">
@@ -994,11 +994,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1009,8 +1009,10 @@
       <c r="E15" t="n">
         <v/>
       </c>
-      <c r="F15" t="n">
-        <v/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>032781693</t>
+        </is>
       </c>
       <c r="G15" t="n">
         <v/>
@@ -1019,10 +1021,10 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>24000000</v>
+        <v>12000000</v>
       </c>
       <c r="J15" t="n">
-        <v>19000000</v>
+        <v>13000000</v>
       </c>
     </row>
     <row r="16">
@@ -1032,11 +1034,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1057,10 +1059,10 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>24000000</v>
       </c>
       <c r="J16" t="n">
-        <v>7000000</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="17">
@@ -1070,11 +1072,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1098,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>10500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="18">
@@ -1108,11 +1110,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1136,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>15000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="19">
@@ -1146,11 +1148,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1174,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>7000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="20">
@@ -1184,11 +1186,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1212,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>16500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="21">
@@ -1222,25 +1224,23 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v/>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0975352074</t>
-        </is>
+      <c r="F21" t="n">
+        <v/>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -1249,10 +1249,10 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1500000</v>
+        <v>16500000</v>
       </c>
     </row>
     <row r="22">
@@ -1262,11 +1262,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Mai thị nương</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0768862580</t>
+          <t>0975352074</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1289,10 +1289,10 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>7000000</v>
+        <v>1500000</v>
       </c>
       <c r="J22" t="n">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="23">
@@ -1302,16 +1302,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0369473448</t>
+          <t>0768862580</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1329,10 +1329,10 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>8500000</v>
+        <v>7000000</v>
       </c>
       <c r="J23" t="n">
-        <v>1500000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="24">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Em gấm</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0764666615</t>
+          <t>0369473448</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1369,10 +1369,10 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>18000000</v>
+        <v>8500000</v>
       </c>
       <c r="J24" t="n">
-        <v>7000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="25">
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>8947126536</t>
+          <t>0764666615</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1409,10 +1409,10 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
       <c r="J25" t="n">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="26">
@@ -1422,16 +1422,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>8947126536</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1449,10 +1449,10 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="27">
@@ -1462,16 +1462,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hồ thị Kim thoa</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0964414150</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1492,7 +1492,7 @@
         <v>8000000</v>
       </c>
       <c r="J27" t="n">
-        <v>17000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="28">
@@ -1502,11 +1502,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Chị diễm</t>
+          <t>Hồ thị Kim thoa</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0918665056</t>
+          <t>0964414150</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1529,10 +1529,10 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>1800000</v>
+        <v>8000000</v>
       </c>
       <c r="J28" t="n">
-        <v>500000</v>
+        <v>17000000</v>
       </c>
     </row>
     <row r="29">
@@ -1542,16 +1542,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0918665056</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1569,10 +1569,10 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>15000000</v>
+        <v>1800000</v>
       </c>
       <c r="J29" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="30">
@@ -1582,11 +1582,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1609,10 +1609,10 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>18000000</v>
+        <v>15000000</v>
       </c>
       <c r="J30" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="31">
@@ -1622,11 +1622,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1637,8 +1637,10 @@
       <c r="E31" t="n">
         <v/>
       </c>
-      <c r="F31" t="n">
-        <v/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -1647,10 +1649,10 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
       <c r="J31" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="32">
@@ -1660,25 +1662,23 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v/>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0387888961</t>
-        </is>
+      <c r="F32" t="n">
+        <v/>
       </c>
       <c r="G32" t="n">
         <v/>
@@ -1687,10 +1687,10 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>9000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="33">
@@ -1700,23 +1700,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v/>
       </c>
-      <c r="F33" t="n">
-        <v/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G33" t="n">
         <v/>
@@ -1725,10 +1727,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="J33" t="n">
-        <v>500000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="34">
@@ -1738,11 +1740,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1753,10 +1755,8 @@
       <c r="E34" t="n">
         <v/>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0939287844</t>
-        </is>
+      <c r="F34" t="n">
+        <v/>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -1765,10 +1765,10 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>5500000</v>
+        <v>2000000</v>
       </c>
       <c r="J34" t="n">
-        <v>3000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="35">
@@ -1778,11 +1778,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>em bang</t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1793,8 +1793,10 @@
       <c r="E35" t="n">
         <v/>
       </c>
-      <c r="F35" t="n">
-        <v/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0939287844</t>
+        </is>
       </c>
       <c r="G35" t="n">
         <v/>
@@ -1803,10 +1805,10 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>36900000</v>
+        <v>5500000</v>
       </c>
       <c r="J35" t="n">
-        <v>14000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="36">
@@ -1816,16 +1818,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1841,10 +1843,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>18800000</v>
+        <v>36900000</v>
       </c>
       <c r="J36" t="n">
-        <v>6200000</v>
+        <v>14000000</v>
       </c>
     </row>
     <row r="37">
@@ -1854,11 +1856,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1867,12 +1869,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F37" t="n">
+        <v/>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -1881,10 +1881,10 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>44000000</v>
+        <v>18800000</v>
       </c>
       <c r="J37" t="n">
-        <v>5000000</v>
+        <v>6200000</v>
       </c>
     </row>
     <row r="38">
@@ -1894,11 +1894,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1907,10 +1907,12 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v/>
-      </c>
-      <c r="F38" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G38" t="n">
         <v/>
@@ -1919,10 +1921,10 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>6000000</v>
+        <v>44000000</v>
       </c>
       <c r="J38" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="39">
@@ -1932,11 +1934,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1947,10 +1949,8 @@
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F39" t="n">
+        <v/>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1959,10 +1959,10 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>22000000</v>
+        <v>6000000</v>
       </c>
       <c r="J39" t="n">
-        <v>16000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="40">
@@ -1972,11 +1972,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1987,8 +1987,10 @@
       <c r="E40" t="n">
         <v/>
       </c>
-      <c r="F40" t="n">
-        <v/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -1997,10 +1999,10 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>1200000</v>
+        <v>22000000</v>
       </c>
       <c r="J40" t="n">
-        <v>300000</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="41">
@@ -2010,11 +2012,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2035,10 +2037,10 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>10300000</v>
+        <v>1200000</v>
       </c>
       <c r="J41" t="n">
-        <v>23500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="42">
@@ -2048,11 +2050,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2063,10 +2065,8 @@
       <c r="E42" t="n">
         <v/>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F42" t="n">
+        <v/>
       </c>
       <c r="G42" t="n">
         <v/>
@@ -2075,10 +2075,10 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>16500000</v>
+        <v>10300000</v>
       </c>
       <c r="J42" t="n">
-        <v>8500000</v>
+        <v>23500000</v>
       </c>
     </row>
     <row r="43">
@@ -2088,11 +2088,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0868277767</t>
+          <t>0332812716</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2115,10 +2115,10 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>4500000</v>
+        <v>16500000</v>
       </c>
       <c r="J43" t="n">
-        <v>10500000</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="44">
@@ -2128,23 +2128,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E44" t="n">
         <v/>
       </c>
-      <c r="F44" t="n">
-        <v/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G44" t="n">
         <v/>
@@ -2153,10 +2155,10 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>1500000</v>
+        <v>4500000</v>
       </c>
       <c r="J44" t="n">
-        <v>1500000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="45">
@@ -2166,11 +2168,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2191,10 +2193,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="J45" t="n">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="46">
@@ -2204,11 +2206,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2229,10 +2231,10 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>13000000</v>
+        <v>10000000</v>
       </c>
       <c r="J46" t="n">
-        <v>22000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="47">
@@ -2242,11 +2244,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2267,10 +2269,10 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>1000000</v>
+        <v>13000000</v>
       </c>
       <c r="J47" t="n">
-        <v>3000000</v>
+        <v>22000000</v>
       </c>
     </row>
     <row r="48">
@@ -2280,11 +2282,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>em Nhi</t>
+          <t>Chị Xuyến</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2305,10 +2307,10 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>19000000</v>
+        <v>1000000</v>
       </c>
       <c r="J48" t="n">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="49">
@@ -2318,11 +2320,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Chị Loan</t>
+          <t>em Nhi</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2343,10 +2345,10 @@
         <v/>
       </c>
       <c r="I49" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="J49" t="n">
         <v>6000000</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1000000</v>
       </c>
     </row>
     <row r="50">
@@ -2356,11 +2358,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Trúc Thanh</t>
+          <t>Chị Loan</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2384,7 +2386,7 @@
         <v>6000000</v>
       </c>
       <c r="J50" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="51">
@@ -2394,34 +2396,72 @@
         </is>
       </c>
       <c r="B51" t="n">
+        <v>68</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Trúc Thanh</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v/>
+      </c>
+      <c r="F51" t="n">
+        <v/>
+      </c>
+      <c r="G51" t="n">
+        <v/>
+      </c>
+      <c r="H51" t="n">
+        <v/>
+      </c>
+      <c r="I51" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
         <v>61</v>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>C.Hoành Ná</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v/>
-      </c>
-      <c r="F51" t="n">
-        <v/>
-      </c>
-      <c r="G51" t="n">
-        <v/>
-      </c>
-      <c r="H51" t="n">
-        <v/>
-      </c>
-      <c r="I51" t="n">
+      <c r="E52" t="n">
+        <v/>
+      </c>
+      <c r="F52" t="n">
+        <v/>
+      </c>
+      <c r="G52" t="n">
+        <v/>
+      </c>
+      <c r="H52" t="n">
+        <v/>
+      </c>
+      <c r="I52" t="n">
         <v>2500000</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J52" t="n">
         <v>1498000</v>
       </c>
     </row>
